--- a/KUPX6BA3.xlsx
+++ b/KUPX6BA3.xlsx
@@ -12,50 +12,50 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="17">
   <si>
     <t xml:space="preserve">Semaine : </t>
   </si>
   <si>
+    <t>mardi</t>
+  </si>
+  <si>
+    <t>Gestion de Projets (KUPX6BA3)</t>
+  </si>
+  <si>
+    <t>KUPX6BA3</t>
+  </si>
+  <si>
+    <t>13:30</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>TYPE_PROJET</t>
+  </si>
+  <si>
+    <t>lundi</t>
+  </si>
+  <si>
+    <t>Gest. De Projets (KUPX6BA3)   (AA)</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>mercredi</t>
+  </si>
+  <si>
     <t>vendredi</t>
   </si>
   <si>
-    <t>Gestion de Projets (KUPX6BA3)</t>
-  </si>
-  <si>
-    <t>KUPX6BA3</t>
-  </si>
-  <si>
-    <t>13:30</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>TYPE_PROJET</t>
+    <t>Gest. De Projets (KUPX6BA3)   (EB)</t>
   </si>
   <si>
     <t>jeudi</t>
   </si>
   <si>
-    <t>Gest. De Projets (KUPX6BA3)   (AA)</t>
-  </si>
-  <si>
-    <t>10:0</t>
-  </si>
-  <si>
-    <t>samedi</t>
-  </si>
-  <si>
-    <t>lundi</t>
-  </si>
-  <si>
-    <t>Gest. De Projets (KUPX6BA3)   (EB)</t>
-  </si>
-  <si>
-    <t>dimanche</t>
-  </si>
-  <si>
     <t>7:45</t>
   </si>
   <si>
@@ -63,9 +63,6 @@
   </si>
   <si>
     <t>15:45</t>
-  </si>
-  <si>
-    <t>8:45</t>
   </si>
 </sst>
 </file>
@@ -128,7 +125,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n" s="1">
-        <v>44953.0</v>
+        <v>46049.0</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>1</v>
@@ -167,7 +164,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n" s="1">
-        <v>44959.0</v>
+        <v>46055.0</v>
       </c>
       <c r="B5" t="s" s="0">
         <v>7</v>
@@ -198,7 +195,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n" s="1">
-        <v>44960.0</v>
+        <v>46056.0</v>
       </c>
       <c r="B7" t="s" s="0">
         <v>1</v>
@@ -229,7 +226,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n" s="1">
-        <v>44961.0</v>
+        <v>46057.0</v>
       </c>
       <c r="B9" t="s" s="0">
         <v>10</v>
@@ -268,7 +265,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n" s="1">
-        <v>44967.0</v>
+        <v>46063.0</v>
       </c>
       <c r="B12" t="s" s="0">
         <v>1</v>
@@ -299,7 +296,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n" s="1">
-        <v>44970.0</v>
+        <v>46066.0</v>
       </c>
       <c r="B14" t="s" s="0">
         <v>11</v>
@@ -338,7 +335,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n" s="1">
-        <v>44974.0</v>
+        <v>46070.0</v>
       </c>
       <c r="B17" t="s" s="0">
         <v>1</v>
@@ -369,7 +366,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n" s="1">
-        <v>44975.0</v>
+        <v>46071.0</v>
       </c>
       <c r="B19" t="s" s="0">
         <v>10</v>
@@ -408,7 +405,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n" s="1">
-        <v>44981.0</v>
+        <v>46077.0</v>
       </c>
       <c r="B22" t="s" s="0">
         <v>1</v>
@@ -447,7 +444,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n" s="1">
-        <v>44995.0</v>
+        <v>46091.0</v>
       </c>
       <c r="B25" t="s" s="0">
         <v>1</v>
@@ -478,7 +475,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n" s="1">
-        <v>44997.0</v>
+        <v>46093.0</v>
       </c>
       <c r="B27" t="s" s="0">
         <v>13</v>
@@ -509,7 +506,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n" s="1">
-        <v>44998.0</v>
+        <v>46094.0</v>
       </c>
       <c r="B29" t="s" s="0">
         <v>11</v>
@@ -548,7 +545,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n" s="1">
-        <v>45002.0</v>
+        <v>46098.0</v>
       </c>
       <c r="B32" t="s" s="0">
         <v>1</v>
@@ -587,7 +584,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n" s="1">
-        <v>45008.0</v>
+        <v>46104.0</v>
       </c>
       <c r="B35" t="s" s="0">
         <v>7</v>
@@ -618,7 +615,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n" s="1">
-        <v>45011.0</v>
+        <v>46107.0</v>
       </c>
       <c r="B37" t="s" s="0">
         <v>13</v>
@@ -633,7 +630,7 @@
         <v>3</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E38" t="n" s="0">
         <v>2.0</v>
